--- a/Documentacion/MinutaTrabajo.xlsx
+++ b/Documentacion/MinutaTrabajo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Documents\CapaciExpress\Documentacion\1ra entrega\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Documents\CapaciExpress\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89278DB5-2F93-4DBB-B4E0-CE1C8EA2DB40}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC0767B-19B2-4078-83C4-169F0AC73502}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{70BEFDEF-B9F9-49A9-AD1A-14B5D0E47192}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{70BEFDEF-B9F9-49A9-AD1A-14B5D0E47192}"/>
   </bookViews>
   <sheets>
     <sheet name="Minuta1" sheetId="1" r:id="rId1"/>
@@ -700,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -806,196 +806,192 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1961,54 +1957,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="47">
         <v>43263</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2017,42 +2013,42 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -2063,44 +2059,44 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="37"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="37"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
@@ -2111,185 +2107,185 @@
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="H22" s="38" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="H22" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="70"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69" t="s">
+      <c r="C23" s="66"/>
+      <c r="D23" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="69" t="s">
+      <c r="E23" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="70" t="s">
+      <c r="F23" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>1</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="14">
         <v>43264</v>
       </c>
-      <c r="F24" s="64" t="s">
+      <c r="F24" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>2</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="28" t="s">
+      <c r="C25" s="62"/>
+      <c r="D25" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="28">
         <v>43264</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>3</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="22">
         <v>43263</v>
       </c>
-      <c r="F26" s="63" t="s">
+      <c r="F26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="37"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="13">
         <v>43264</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="34" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2297,17 +2293,17 @@
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="14">
         <v>43264</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="32" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2315,28 +2311,33 @@
       <c r="A29" s="4">
         <v>6</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="37"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="13">
         <v>43264</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="31" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="B6:F7"/>
     <mergeCell ref="B8:F8"/>
@@ -2349,17 +2350,12 @@
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K26"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2389,54 +2385,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="47">
         <v>43264</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2445,50 +2441,50 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="H7" s="30" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -2497,67 +2493,67 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="37"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="37"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="37"/>
-      <c r="H14" s="59" t="s">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
+      <c r="H14" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="21" t="s">
@@ -2571,78 +2567,78 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
       <c r="H16" s="19">
         <v>1</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="73" t="s">
+      <c r="J16" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
       <c r="H17" s="19">
         <v>2</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="73" t="s">
+      <c r="J17" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
       <c r="H18" s="19">
         <v>3</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="73" t="s">
+      <c r="J18" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
       <c r="H19" s="19">
         <v>4</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="73" t="s">
+      <c r="J19" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2653,44 +2649,44 @@
       <c r="I20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="73" t="s">
+      <c r="J20" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
       <c r="H21" s="19">
         <v>6</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="73" t="s">
+      <c r="J21" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69" t="s">
+      <c r="C22" s="66"/>
+      <c r="D22" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="69" t="s">
+      <c r="E22" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="70" t="s">
+      <c r="F22" s="37" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2698,17 +2694,17 @@
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="13">
         <v>43269</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2716,17 +2712,17 @@
       <c r="A24" s="2">
         <v>2</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="26">
         <v>43269</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2734,17 +2730,17 @@
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="62"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="26">
         <v>43269</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2752,17 +2748,17 @@
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="62"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="26">
         <v>43269</v>
       </c>
-      <c r="F26" s="63" t="s">
+      <c r="F26" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2770,17 +2766,17 @@
       <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="26">
         <v>43269</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2788,17 +2784,17 @@
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="62"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E28" s="26">
         <v>43269</v>
       </c>
-      <c r="F28" s="63" t="s">
+      <c r="F28" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2806,33 +2802,31 @@
       <c r="A29" s="4">
         <v>7</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="62"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="26">
         <v>43269</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="31" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
@@ -2842,15 +2836,17 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="A19:F19"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H8:J10"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2863,7 +2859,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:J20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,54 +2875,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="47">
         <v>43269</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -2935,50 +2931,50 @@
       <c r="B5" s="19">
         <v>3</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="H7" s="30" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -2987,49 +2983,49 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
       <c r="H13" s="25" t="s">
         <v>52</v>
       </c>
@@ -3041,59 +3037,59 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
       <c r="H14" s="23">
         <v>1</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="73" t="s">
+      <c r="J14" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
       <c r="H15" s="23">
         <v>2</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="73" t="s">
+      <c r="J15" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
       <c r="H16" s="23">
         <v>3</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="73" t="s">
+      <c r="J16" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3104,44 +3100,44 @@
       <c r="I17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="73" t="s">
+      <c r="J17" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
       <c r="H18" s="23">
         <v>5</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="73" t="s">
+      <c r="J18" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="37" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="23">
@@ -3150,7 +3146,7 @@
       <c r="I19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="73" t="s">
+      <c r="J19" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3158,17 +3154,17 @@
       <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="22">
         <v>43270</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="31" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="23">
@@ -3177,7 +3173,7 @@
       <c r="I20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="73" t="s">
+      <c r="J20" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3185,17 +3181,17 @@
       <c r="A21" s="2">
         <v>2</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="37"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="19" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="22">
         <v>43270</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3203,17 +3199,17 @@
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="22">
         <v>43270</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3221,22 +3217,29 @@
       <c r="A23" s="4">
         <v>4</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="62"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="26">
         <v>43270</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="31" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A1:F1"/>
@@ -3252,17 +3255,11 @@
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3270,7 +3267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545CDF5D-2062-4286-BBC5-C14E1CC6FABB}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -3287,54 +3284,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="47">
         <v>43270</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3343,50 +3340,50 @@
       <c r="B5" s="19">
         <v>4</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="H7" s="30" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -3395,66 +3392,66 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="H14" s="38" t="s">
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="H14" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
       <c r="H15" s="25" t="s">
         <v>52</v>
       </c>
@@ -3466,59 +3463,59 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
       <c r="H16" s="19">
         <v>1</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="74" t="s">
+      <c r="J16" s="41" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
       <c r="H17" s="23">
         <v>2</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="73" t="s">
+      <c r="J17" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
       <c r="H18" s="23">
         <v>3</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="74" t="s">
+      <c r="J18" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3529,28 +3526,28 @@
       <c r="I19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="74" t="s">
+      <c r="J19" s="41" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="17" t="s">
         <v>12</v>
       </c>
@@ -3565,17 +3562,17 @@
       <c r="A22" s="2">
         <v>1</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="19" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="22">
         <v>43272</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3583,17 +3580,17 @@
       <c r="A23" s="2">
         <v>2</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="26">
         <v>43272</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3601,17 +3598,17 @@
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="26">
         <v>43272</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3619,17 +3616,17 @@
       <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="62"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="26">
         <v>43272</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3637,17 +3634,17 @@
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="62"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E26" s="26">
         <v>43272</v>
       </c>
-      <c r="F26" s="63" t="s">
+      <c r="F26" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3655,22 +3652,34 @@
       <c r="A27" s="4">
         <v>6</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="26">
         <v>43272</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="31" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A1:F1"/>
@@ -3685,18 +3694,6 @@
     <mergeCell ref="B6:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="H8:J10"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3707,8 +3704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13651FC-B812-4427-8764-62367C512B86}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3724,54 +3721,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="47">
         <v>43272</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -3780,50 +3777,50 @@
       <c r="B5" s="23">
         <v>5</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="H7" s="30" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -3832,151 +3829,151 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="37"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="H14" s="38" t="s">
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="H14" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="H15" s="72" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="H15" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="72" t="s">
+      <c r="I15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="72" t="s">
+      <c r="J15" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
       <c r="H16" s="23">
         <v>1</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="74" t="s">
+      <c r="J16" s="41" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
       <c r="H17" s="23">
         <v>2</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="73" t="s">
+      <c r="J17" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
       <c r="H18" s="23">
         <v>3</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="73" t="s">
+      <c r="J18" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
       <c r="H19" s="23">
         <v>4</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="74" t="s">
+      <c r="J19" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3987,44 +3984,44 @@
       <c r="I20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J20" s="73" t="s">
+      <c r="J20" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
       <c r="H21" s="23">
         <v>6</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="73" t="s">
+      <c r="J21" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="66"/>
+      <c r="D22" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="37" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4032,17 +4029,17 @@
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E23" s="26">
         <v>43272</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="34" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4050,17 +4047,17 @@
       <c r="A24" s="2">
         <v>2</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E24" s="26">
         <v>43274</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4068,17 +4065,17 @@
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="62"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="26">
         <v>43272</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="34" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4086,17 +4083,17 @@
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="62"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="26">
         <v>43273</v>
       </c>
-      <c r="F26" s="63" t="s">
+      <c r="F26" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4104,17 +4101,17 @@
       <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="26">
         <v>43273</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4122,22 +4119,39 @@
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="62"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="26">
         <v>43273</v>
       </c>
-      <c r="F28" s="63" t="s">
+      <c r="F28" s="31" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A12:F12"/>
@@ -4149,23 +4163,6 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H8:J10"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentacion/MinutaTrabajo.xlsx
+++ b/Documentacion/MinutaTrabajo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Documents\CapaciExpress\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC0767B-19B2-4078-83C4-169F0AC73502}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC806092-002F-4400-BC40-7027B4EC7123}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{70BEFDEF-B9F9-49A9-AD1A-14B5D0E47192}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{70BEFDEF-B9F9-49A9-AD1A-14B5D0E47192}"/>
   </bookViews>
   <sheets>
     <sheet name="Minuta1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Minuta3" sheetId="4" r:id="rId3"/>
     <sheet name="Minuta4" sheetId="5" r:id="rId4"/>
     <sheet name="Minuta5" sheetId="6" r:id="rId5"/>
+    <sheet name="Minuta6" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="119">
   <si>
     <t>MINUTA DE TRABAJO</t>
   </si>
@@ -347,6 +348,45 @@
   </si>
   <si>
     <t xml:space="preserve">Actualizar repositorio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salón CC8 de FMAT. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jessica González, Roger Santoyo, Karina Carmona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Preguntar sobre los escenarios de casos de uso. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Actualizar documentación para la 2da entrega. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisión de la documentación para la 2da entrega, preguntar nuestras dudas al profesor sobre los documentos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Antonio envió la actualización del código de la base de datos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) Roger está con la actualización del diagrama de clases. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) Karina actualizó la métrica. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisar la codificación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Karina y Jessica empezarón con el documento de escenarios de casos de uso con el formato que el maestro les recomendó. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviar la métrica actualizada </t>
+  </si>
+  <si>
+    <t>Enviar la actualización de los escenarios de casos de uso</t>
+  </si>
+  <si>
+    <t>Karina, Jessica</t>
   </si>
 </sst>
 </file>
@@ -700,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -870,6 +910,118 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -892,98 +1044,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1617,17 +1677,164 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> acordó que la próxima reunión sería en linea </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725E6404-C662-4065-A689-B2FEE4F65B1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="1419224"/>
+          <a:ext cx="9525" cy="581026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
             <a:t>Se acordó que la próxima reunión</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-MX" sz="1100" baseline="0"/>
-            <a:t> será el día</a:t>
+            <a:t> será el día </a:t>
           </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDE00BE-1A39-4BD9-AA0F-C080C185F2D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="1409700"/>
+          <a:ext cx="2724150" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Se</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="es-MX" sz="1100" baseline="0"/>
-            <a:t>viernes a las 11:30 en la biblioteca del CCEI.  </a:t>
+            <a:t> acordó que la próxima reunión sería en linea </a:t>
           </a:r>
           <a:endParaRPr lang="es-MX" sz="1100"/>
         </a:p>
@@ -1957,54 +2164,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="75">
         <v>43263</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="43"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2013,42 +2220,42 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -2059,44 +2266,44 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
@@ -2107,90 +2314,90 @@
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65"/>
-      <c r="H22" s="68" t="s">
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="H22" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="70"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="55"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="66"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="36" t="s">
         <v>12</v>
       </c>
@@ -2200,19 +2407,19 @@
       <c r="F23" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>1</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="5" t="s">
         <v>26</v>
       </c>
@@ -2222,19 +2429,19 @@
       <c r="F24" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>2</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="62"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="27" t="s">
         <v>26</v>
       </c>
@@ -2244,19 +2451,19 @@
       <c r="F25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>3</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="19" t="s">
         <v>21</v>
       </c>
@@ -2266,19 +2473,19 @@
       <c r="F26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="3" t="s">
         <v>21</v>
       </c>
@@ -2293,10 +2500,10 @@
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="62"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="5" t="s">
         <v>26</v>
       </c>
@@ -2311,10 +2518,10 @@
       <c r="A29" s="4">
         <v>6</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="62"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
@@ -2327,17 +2534,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="B6:F7"/>
     <mergeCell ref="B8:F8"/>
@@ -2350,12 +2552,17 @@
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2385,54 +2592,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="75">
         <v>43264</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="43"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2441,30 +2648,30 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -2475,16 +2682,16 @@
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -2493,67 +2700,67 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62"/>
-      <c r="H14" s="46" t="s">
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="52"/>
+      <c r="H14" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="21" t="s">
@@ -2567,14 +2774,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
       <c r="H16" s="19">
         <v>1</v>
       </c>
@@ -2586,14 +2793,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="H17" s="19">
         <v>2</v>
       </c>
@@ -2605,14 +2812,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
       <c r="H18" s="19">
         <v>3</v>
       </c>
@@ -2624,14 +2831,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
       <c r="H19" s="19">
         <v>4</v>
       </c>
@@ -2654,14 +2861,14 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="65"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
       <c r="H21" s="19">
         <v>6</v>
       </c>
@@ -2676,10 +2883,10 @@
       <c r="A22" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="66"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="36" t="s">
         <v>12</v>
       </c>
@@ -2694,10 +2901,10 @@
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
@@ -2712,10 +2919,10 @@
       <c r="A24" s="2">
         <v>2</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="3" t="s">
         <v>38</v>
       </c>
@@ -2730,10 +2937,10 @@
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="72"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="5" t="s">
         <v>39</v>
       </c>
@@ -2748,10 +2955,10 @@
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="72"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="5" t="s">
         <v>40</v>
       </c>
@@ -2766,10 +2973,10 @@
       <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="72"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="5" t="s">
         <v>38</v>
       </c>
@@ -2784,10 +2991,10 @@
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="72"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="5" t="s">
         <v>41</v>
       </c>
@@ -2802,10 +3009,10 @@
       <c r="A29" s="4">
         <v>7</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="5" t="s">
         <v>42</v>
       </c>
@@ -2818,6 +3025,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H8:J10"/>
     <mergeCell ref="B26:C26"/>
@@ -2827,26 +3054,6 @@
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2875,54 +3082,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="75">
         <v>43269</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="43"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -2931,30 +3138,30 @@
       <c r="B5" s="19">
         <v>3</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -2965,16 +3172,16 @@
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -2983,49 +3190,49 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
       <c r="H13" s="25" t="s">
         <v>52</v>
       </c>
@@ -3037,14 +3244,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
       <c r="H14" s="23">
         <v>1</v>
       </c>
@@ -3056,14 +3263,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
       <c r="H15" s="23">
         <v>2</v>
       </c>
@@ -3075,14 +3282,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
       <c r="H16" s="23">
         <v>3</v>
       </c>
@@ -3105,14 +3312,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
       <c r="H18" s="23">
         <v>5</v>
       </c>
@@ -3127,10 +3334,10 @@
       <c r="A19" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="66"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="36" t="s">
         <v>12</v>
       </c>
@@ -3154,10 +3361,10 @@
       <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="19" t="s">
         <v>38</v>
       </c>
@@ -3181,10 +3388,10 @@
       <c r="A21" s="2">
         <v>2</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="62"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="19" t="s">
         <v>41</v>
       </c>
@@ -3199,10 +3406,10 @@
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="72"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="5" t="s">
         <v>40</v>
       </c>
@@ -3217,10 +3424,10 @@
       <c r="A23" s="4">
         <v>4</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="72"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="5" t="s">
         <v>40</v>
       </c>
@@ -3233,13 +3440,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A1:F1"/>
@@ -3256,6 +3456,13 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3267,7 +3474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545CDF5D-2062-4286-BBC5-C14E1CC6FABB}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -3284,54 +3491,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="75">
         <v>43270</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="43"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3340,30 +3547,30 @@
       <c r="B5" s="19">
         <v>4</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -3374,16 +3581,16 @@
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -3392,32 +3599,32 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
@@ -3429,29 +3636,29 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
-      <c r="H14" s="68" t="s">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66"/>
+      <c r="H14" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
       <c r="H15" s="25" t="s">
         <v>52</v>
       </c>
@@ -3463,14 +3670,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
       <c r="H16" s="19">
         <v>1</v>
       </c>
@@ -3482,14 +3689,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="H17" s="23">
         <v>2</v>
       </c>
@@ -3501,14 +3708,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
       <c r="H18" s="23">
         <v>3</v>
       </c>
@@ -3531,23 +3738,23 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="73"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="17" t="s">
         <v>12</v>
       </c>
@@ -3562,10 +3769,10 @@
       <c r="A22" s="2">
         <v>1</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="19" t="s">
         <v>41</v>
       </c>
@@ -3580,10 +3787,10 @@
       <c r="A23" s="2">
         <v>2</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="62"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="19" t="s">
         <v>38</v>
       </c>
@@ -3598,10 +3805,10 @@
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="72"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="5" t="s">
         <v>40</v>
       </c>
@@ -3616,10 +3823,10 @@
       <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="72"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="5" t="s">
         <v>40</v>
       </c>
@@ -3634,10 +3841,10 @@
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="72"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="5" t="s">
         <v>89</v>
       </c>
@@ -3652,10 +3859,10 @@
       <c r="A27" s="4">
         <v>6</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="72"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="5" t="s">
         <v>40</v>
       </c>
@@ -3668,6 +3875,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
@@ -3682,18 +3899,8 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3704,8 +3911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13651FC-B812-4427-8764-62367C512B86}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3721,54 +3928,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="75">
         <v>43272</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="43"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -3777,30 +3984,30 @@
       <c r="B5" s="23">
         <v>5</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -3811,16 +4018,16 @@
       <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -3829,68 +4036,68 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
-      <c r="H14" s="68" t="s">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66"/>
+      <c r="H14" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
       <c r="H15" s="39" t="s">
         <v>52</v>
       </c>
@@ -3902,14 +4109,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
       <c r="H16" s="23">
         <v>1</v>
       </c>
@@ -3921,14 +4128,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="H17" s="23">
         <v>2</v>
       </c>
@@ -3940,14 +4147,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
       <c r="H18" s="23">
         <v>3</v>
       </c>
@@ -3959,14 +4166,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
       <c r="H19" s="23">
         <v>4</v>
       </c>
@@ -3989,14 +4196,14 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="65"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
       <c r="H21" s="23">
         <v>6</v>
       </c>
@@ -4011,10 +4218,10 @@
       <c r="A22" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="66"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="36" t="s">
         <v>12</v>
       </c>
@@ -4029,28 +4236,28 @@
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E23" s="26">
         <v>43272</v>
       </c>
-      <c r="F23" s="34" t="s">
-        <v>24</v>
+      <c r="F23" s="31" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="23" t="s">
         <v>89</v>
       </c>
@@ -4065,10 +4272,10 @@
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="72"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="5" t="s">
         <v>38</v>
       </c>
@@ -4083,10 +4290,10 @@
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="72"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="5" t="s">
         <v>41</v>
       </c>
@@ -4101,10 +4308,10 @@
       <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="72"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="5" t="s">
         <v>26</v>
       </c>
@@ -4119,10 +4326,10 @@
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="72"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="5" t="s">
         <v>40</v>
       </c>
@@ -4135,21 +4342,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H8:J10"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="B27:C27"/>
@@ -4163,6 +4355,443 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A14:F14"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B86E4A-F288-47B6-843B-E3238DE520EC}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="48.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="17.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="75">
+        <v>43276</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="71"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="42">
+        <v>6</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="68"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+      <c r="H7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="52"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="52"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66"/>
+      <c r="H14" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="H15" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="H16" s="42">
+        <v>1</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
+      <c r="H17" s="42">
+        <v>2</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="H18" s="42">
+        <v>3</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="42">
+        <v>4</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="H20" s="42">
+        <v>5</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="42">
+        <v>6</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="45">
+        <v>43277</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="45">
+        <v>43276</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>3</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="77"/>
+      <c r="D24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="45">
+        <v>43272</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>4</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="77"/>
+      <c r="D25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="45">
+        <v>43273</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentacion/MinutaTrabajo.xlsx
+++ b/Documentacion/MinutaTrabajo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Documents\CapaciExpress\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC806092-002F-4400-BC40-7027B4EC7123}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9888BDFA-5A42-40B8-9093-52EBD4B9D672}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="5" xr2:uid="{70BEFDEF-B9F9-49A9-AD1A-14B5D0E47192}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="6" xr2:uid="{70BEFDEF-B9F9-49A9-AD1A-14B5D0E47192}"/>
   </bookViews>
   <sheets>
     <sheet name="Minuta1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Minuta4" sheetId="5" r:id="rId4"/>
     <sheet name="Minuta5" sheetId="6" r:id="rId5"/>
     <sheet name="Minuta6" sheetId="7" r:id="rId6"/>
+    <sheet name="Minuta7" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="131">
   <si>
     <t>MINUTA DE TRABAJO</t>
   </si>
@@ -387,6 +388,42 @@
   </si>
   <si>
     <t>Karina, Jessica</t>
+  </si>
+  <si>
+    <t>17:00 - 19:00 horas</t>
+  </si>
+  <si>
+    <t>Revisión de las fallas de la base de datos y ordenar documentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jessica González, Antonio Cetzal, Karina Carmona</t>
+  </si>
+  <si>
+    <t>2) Actualización de documentos.</t>
+  </si>
+  <si>
+    <t>1) Revisar código con el profesor para revisar errores.</t>
+  </si>
+  <si>
+    <t>1) Los 3 integrantes mostraron al profesor el código avanzado y preguntar el porqué se tiene errores.</t>
+  </si>
+  <si>
+    <t>2) Ultimás revisiones para la 2da entrega.</t>
+  </si>
+  <si>
+    <t>Enviar diagrama de clases</t>
+  </si>
+  <si>
+    <t>Subir documentos para la 2da entrega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguir codificando </t>
+  </si>
+  <si>
+    <t>Verificar código</t>
+  </si>
+  <si>
+    <t>Todos los integrantes</t>
   </si>
 </sst>
 </file>
@@ -740,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -926,6 +963,54 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -939,17 +1024,69 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -964,86 +1101,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1834,7 +1891,160 @@
           </a:r>
           <a:r>
             <a:rPr lang="es-MX" sz="1100" baseline="0"/>
-            <a:t> acordó que la próxima reunión sería en linea </a:t>
+            <a:t> acordó que la próxima reunión sería el 26 de Junio en el CC8 de FMAT.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CBF458-D48F-40AB-ACB6-EDBEAB22F645}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="1419224"/>
+          <a:ext cx="9525" cy="581026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Se acordó que la próxima reunión</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> será el día </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA0502F-39DD-4D13-AF94-29B8E58F5287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="1409700"/>
+          <a:ext cx="2724150" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> acordó que la próxima reunión sería el 27 de Junio en el CC8 de FMAT, para la 2da entrega.</a:t>
           </a:r>
           <a:endParaRPr lang="es-MX" sz="1100"/>
         </a:p>
@@ -2164,54 +2374,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="57">
         <v>43263</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2220,13 +2430,13 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -2238,7 +2448,7 @@
       <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -2249,13 +2459,13 @@
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -2266,44 +2476,44 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="52"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="52"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="52"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
@@ -2314,90 +2524,90 @@
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="H22" s="53" t="s">
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="75"/>
+      <c r="H22" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="55"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="80"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="36" t="s">
         <v>12</v>
       </c>
@@ -2407,19 +2617,19 @@
       <c r="F23" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>1</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="5" t="s">
         <v>26</v>
       </c>
@@ -2429,19 +2639,19 @@
       <c r="F24" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>2</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="27" t="s">
         <v>26</v>
       </c>
@@ -2451,19 +2661,19 @@
       <c r="F25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>3</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="50"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="19" t="s">
         <v>21</v>
       </c>
@@ -2473,19 +2683,19 @@
       <c r="F26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="3" t="s">
         <v>21</v>
       </c>
@@ -2500,10 +2710,10 @@
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="5" t="s">
         <v>26</v>
       </c>
@@ -2518,10 +2728,10 @@
       <c r="A29" s="4">
         <v>6</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="52"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
@@ -2534,12 +2744,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="B6:F7"/>
     <mergeCell ref="B8:F8"/>
@@ -2552,17 +2767,12 @@
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K26"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2592,54 +2802,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="57">
         <v>43264</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2648,13 +2858,13 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -2666,7 +2876,7 @@
       <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -2689,9 +2899,9 @@
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
       <c r="F8" s="62"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -2700,67 +2910,67 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="52"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="52"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="52"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="52"/>
-      <c r="H14" s="74" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72"/>
+      <c r="H14" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="21" t="s">
@@ -2774,14 +2984,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="67"/>
       <c r="H16" s="19">
         <v>1</v>
       </c>
@@ -2793,14 +3003,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
       <c r="H17" s="19">
         <v>2</v>
       </c>
@@ -2812,14 +3022,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
       <c r="H18" s="19">
         <v>3</v>
       </c>
@@ -2831,14 +3041,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
       <c r="H19" s="19">
         <v>4</v>
       </c>
@@ -2861,14 +3071,14 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="75"/>
       <c r="H21" s="19">
         <v>6</v>
       </c>
@@ -2883,10 +3093,10 @@
       <c r="A22" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="60"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="36" t="s">
         <v>12</v>
       </c>
@@ -2901,10 +3111,10 @@
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="50"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
@@ -2919,10 +3129,10 @@
       <c r="A24" s="2">
         <v>2</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="3" t="s">
         <v>38</v>
       </c>
@@ -2937,10 +3147,10 @@
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="77"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="5" t="s">
         <v>39</v>
       </c>
@@ -2955,10 +3165,10 @@
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="77"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="5" t="s">
         <v>40</v>
       </c>
@@ -2973,10 +3183,10 @@
       <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="77"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="5" t="s">
         <v>38</v>
       </c>
@@ -2991,10 +3201,10 @@
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="77"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="5" t="s">
         <v>41</v>
       </c>
@@ -3009,10 +3219,10 @@
       <c r="A29" s="4">
         <v>7</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="77"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="5" t="s">
         <v>42</v>
       </c>
@@ -3025,17 +3235,15 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
@@ -3045,15 +3253,17 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="A19:F19"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H8:J10"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3082,54 +3292,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="57">
         <v>43269</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3138,13 +3348,13 @@
       <c r="B5" s="19">
         <v>3</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -3156,7 +3366,7 @@
       <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -3179,9 +3389,9 @@
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
       <c r="F8" s="62"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -3190,49 +3400,49 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="52"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
       <c r="H13" s="25" t="s">
         <v>52</v>
       </c>
@@ -3244,14 +3454,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
       <c r="H14" s="23">
         <v>1</v>
       </c>
@@ -3263,14 +3473,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
       <c r="H15" s="23">
         <v>2</v>
       </c>
@@ -3282,14 +3492,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
       <c r="H16" s="23">
         <v>3</v>
       </c>
@@ -3312,14 +3522,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75"/>
       <c r="H18" s="23">
         <v>5</v>
       </c>
@@ -3334,10 +3544,10 @@
       <c r="A19" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="60"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="36" t="s">
         <v>12</v>
       </c>
@@ -3361,10 +3571,10 @@
       <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="19" t="s">
         <v>38</v>
       </c>
@@ -3388,10 +3598,10 @@
       <c r="A21" s="2">
         <v>2</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="19" t="s">
         <v>41</v>
       </c>
@@ -3406,10 +3616,10 @@
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="77"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="5" t="s">
         <v>40</v>
       </c>
@@ -3424,10 +3634,10 @@
       <c r="A23" s="4">
         <v>4</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="77"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="5" t="s">
         <v>40</v>
       </c>
@@ -3440,6 +3650,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A1:F1"/>
@@ -3456,13 +3673,6 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3491,54 +3701,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="57">
         <v>43270</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3547,13 +3757,13 @@
       <c r="B5" s="19">
         <v>4</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -3565,7 +3775,7 @@
       <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -3588,9 +3798,9 @@
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
       <c r="F8" s="62"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -3599,32 +3809,32 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="52"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
@@ -3636,29 +3846,29 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="H14" s="53" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="H14" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
       <c r="H15" s="25" t="s">
         <v>52</v>
       </c>
@@ -3670,14 +3880,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
       <c r="H16" s="19">
         <v>1</v>
       </c>
@@ -3689,14 +3899,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
       <c r="H17" s="23">
         <v>2</v>
       </c>
@@ -3708,14 +3918,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
       <c r="H18" s="23">
         <v>3</v>
       </c>
@@ -3738,23 +3948,23 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="78"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="17" t="s">
         <v>12</v>
       </c>
@@ -3769,10 +3979,10 @@
       <c r="A22" s="2">
         <v>1</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="19" t="s">
         <v>41</v>
       </c>
@@ -3787,10 +3997,10 @@
       <c r="A23" s="2">
         <v>2</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="19" t="s">
         <v>38</v>
       </c>
@@ -3805,10 +4015,10 @@
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="77"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="5" t="s">
         <v>40</v>
       </c>
@@ -3823,10 +4033,10 @@
       <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="77"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="5" t="s">
         <v>40</v>
       </c>
@@ -3841,10 +4051,10 @@
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="77"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="5" t="s">
         <v>89</v>
       </c>
@@ -3859,10 +4069,10 @@
       <c r="A27" s="4">
         <v>6</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="77"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="5" t="s">
         <v>40</v>
       </c>
@@ -3875,16 +4085,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
@@ -3901,6 +4101,16 @@
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3928,54 +4138,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="57">
         <v>43272</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -3984,13 +4194,13 @@
       <c r="B5" s="23">
         <v>5</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -4002,7 +4212,7 @@
       <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -4025,9 +4235,9 @@
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
       <c r="F8" s="62"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -4036,68 +4246,68 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="52"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="52"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="H14" s="53" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="H14" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
       <c r="H15" s="39" t="s">
         <v>52</v>
       </c>
@@ -4109,14 +4319,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
       <c r="H16" s="23">
         <v>1</v>
       </c>
@@ -4128,14 +4338,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
       <c r="H17" s="23">
         <v>2</v>
       </c>
@@ -4147,14 +4357,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
       <c r="H18" s="23">
         <v>3</v>
       </c>
@@ -4166,14 +4376,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
       <c r="H19" s="23">
         <v>4</v>
       </c>
@@ -4196,14 +4406,14 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="75"/>
       <c r="H21" s="23">
         <v>6</v>
       </c>
@@ -4218,10 +4428,10 @@
       <c r="A22" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="60"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="36" t="s">
         <v>12</v>
       </c>
@@ -4236,10 +4446,10 @@
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="50"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="23" t="s">
         <v>89</v>
       </c>
@@ -4254,10 +4464,10 @@
       <c r="A24" s="2">
         <v>2</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="23" t="s">
         <v>89</v>
       </c>
@@ -4272,10 +4482,10 @@
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="77"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="5" t="s">
         <v>38</v>
       </c>
@@ -4290,10 +4500,10 @@
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="77"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="5" t="s">
         <v>41</v>
       </c>
@@ -4308,10 +4518,10 @@
       <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="77"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="5" t="s">
         <v>26</v>
       </c>
@@ -4326,10 +4536,10 @@
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="77"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="5" t="s">
         <v>40</v>
       </c>
@@ -4342,6 +4552,21 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="B27:C27"/>
@@ -4355,21 +4580,6 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="H8:J10"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="B8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4381,8 +4591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B86E4A-F288-47B6-843B-E3238DE520EC}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4399,54 +4609,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="57">
         <v>43276</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
@@ -4455,13 +4665,13 @@
       <c r="B5" s="42">
         <v>6</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -4473,7 +4683,7 @@
       <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -4496,9 +4706,9 @@
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
       <c r="F8" s="62"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -4507,68 +4717,68 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="52"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="52"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="H14" s="53" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="H14" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
       <c r="H15" s="39" t="s">
         <v>52</v>
       </c>
@@ -4580,14 +4790,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
       <c r="H16" s="42">
         <v>1</v>
       </c>
@@ -4599,14 +4809,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
       <c r="H17" s="42">
         <v>2</v>
       </c>
@@ -4618,14 +4828,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
       <c r="H18" s="42">
         <v>3</v>
       </c>
@@ -4643,19 +4853,19 @@
       <c r="I19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="40" t="s">
-        <v>24</v>
+      <c r="J19" s="41" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
       <c r="H20" s="42">
         <v>5</v>
       </c>
@@ -4670,10 +4880,10 @@
       <c r="A21" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="60"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="46" t="s">
         <v>12</v>
       </c>
@@ -4697,10 +4907,10 @@
       <c r="A22" s="2">
         <v>1</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="42" t="s">
         <v>89</v>
       </c>
@@ -4715,10 +4925,10 @@
       <c r="A23" s="2">
         <v>2</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="42" t="s">
         <v>38</v>
       </c>
@@ -4733,10 +4943,10 @@
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="77"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="5" t="s">
         <v>118</v>
       </c>
@@ -4751,10 +4961,10 @@
       <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="77"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="5" t="s">
         <v>41</v>
       </c>
@@ -4767,6 +4977,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A18:F18"/>
@@ -4774,12 +5002,376 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88DD946-AF28-4907-BF75-BBC3EA2DDF6D}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="48.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="17.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="57">
+        <v>43277</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="53"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="48">
+        <v>7</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="69"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+      <c r="H7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="H14" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
+      <c r="H15" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="H16" s="48">
+        <v>1</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="48">
+        <v>2</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75"/>
+      <c r="H18" s="48">
+        <v>3</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="76"/>
+      <c r="D19" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="48">
+        <v>4</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="51">
+        <v>43278</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="72"/>
+      <c r="D21" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="51">
+        <v>43278</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>3</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="51">
+        <v>43278</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>4</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="82"/>
+      <c r="D23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="51">
+        <v>43278</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:F7"/>
     <mergeCell ref="B8:F8"/>
@@ -4794,7 +5386,6 @@
     <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentacion/MinutaTrabajo.xlsx
+++ b/Documentacion/MinutaTrabajo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Documents\CapaciExpress\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9888BDFA-5A42-40B8-9093-52EBD4B9D672}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEA77CB-AA65-4744-BDD6-AB7BF2720E0E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="6" xr2:uid="{70BEFDEF-B9F9-49A9-AD1A-14B5D0E47192}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="7" xr2:uid="{70BEFDEF-B9F9-49A9-AD1A-14B5D0E47192}"/>
   </bookViews>
   <sheets>
     <sheet name="Minuta1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Minuta5" sheetId="6" r:id="rId5"/>
     <sheet name="Minuta6" sheetId="7" r:id="rId6"/>
     <sheet name="Minuta7" sheetId="8" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="131">
   <si>
     <t>MINUTA DE TRABAJO</t>
   </si>
@@ -777,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -987,6 +988,118 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1009,98 +1122,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2055,6 +2076,159 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61CA6FF7-9BCE-4DFF-B657-3FEEAAA3383E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9258300" y="1419224"/>
+          <a:ext cx="9525" cy="581026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Se acordó que la próxima reunión</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> será el día </a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1652C0-010E-42A3-9B4C-0186EA162613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9258300" y="1409700"/>
+          <a:ext cx="2724150" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> acordó que la próxima reunión sería el 27 de Junio en el CC8 de FMAT, para la 2da entrega.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2374,54 +2548,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="85">
         <v>43263</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2430,42 +2604,42 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -2476,44 +2650,44 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
@@ -2524,90 +2698,90 @@
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="75"/>
-      <c r="H22" s="78" t="s">
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
+      <c r="H22" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="80"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="36" t="s">
         <v>12</v>
       </c>
@@ -2617,19 +2791,19 @@
       <c r="F23" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>1</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="72"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="5" t="s">
         <v>26</v>
       </c>
@@ -2639,19 +2813,19 @@
       <c r="F24" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>2</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="72"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="27" t="s">
         <v>26</v>
       </c>
@@ -2661,19 +2835,19 @@
       <c r="F25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>3</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="64"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="19" t="s">
         <v>21</v>
       </c>
@@ -2683,19 +2857,19 @@
       <c r="F26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="72"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="3" t="s">
         <v>21</v>
       </c>
@@ -2710,10 +2884,10 @@
       <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="72"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="5" t="s">
         <v>26</v>
       </c>
@@ -2728,10 +2902,10 @@
       <c r="A29" s="4">
         <v>6</v>
       </c>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
@@ -2744,17 +2918,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="B6:F7"/>
     <mergeCell ref="B8:F8"/>
@@ -2767,12 +2936,17 @@
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2802,54 +2976,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="85">
         <v>43264</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2858,30 +3032,30 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -2892,16 +3066,16 @@
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -2910,67 +3084,67 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
-      <c r="H14" s="56" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="62"/>
+      <c r="H14" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="21" t="s">
@@ -2984,14 +3158,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
       <c r="H16" s="19">
         <v>1</v>
       </c>
@@ -3003,14 +3177,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
       <c r="H17" s="19">
         <v>2</v>
       </c>
@@ -3022,14 +3196,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
       <c r="H18" s="19">
         <v>3</v>
       </c>
@@ -3041,14 +3215,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
       <c r="H19" s="19">
         <v>4</v>
       </c>
@@ -3071,14 +3245,14 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
       <c r="H21" s="19">
         <v>6</v>
       </c>
@@ -3093,10 +3267,10 @@
       <c r="A22" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="76"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="36" t="s">
         <v>12</v>
       </c>
@@ -3111,10 +3285,10 @@
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="64"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
@@ -3129,10 +3303,10 @@
       <c r="A24" s="2">
         <v>2</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="72"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="3" t="s">
         <v>38</v>
       </c>
@@ -3147,10 +3321,10 @@
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="82"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="5" t="s">
         <v>39</v>
       </c>
@@ -3165,10 +3339,10 @@
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="82"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="5" t="s">
         <v>40</v>
       </c>
@@ -3183,10 +3357,10 @@
       <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="82"/>
+      <c r="C27" s="87"/>
       <c r="D27" s="5" t="s">
         <v>38</v>
       </c>
@@ -3201,10 +3375,10 @@
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="82"/>
+      <c r="C28" s="87"/>
       <c r="D28" s="5" t="s">
         <v>41</v>
       </c>
@@ -3219,10 +3393,10 @@
       <c r="A29" s="4">
         <v>7</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="82"/>
+      <c r="C29" s="87"/>
       <c r="D29" s="5" t="s">
         <v>42</v>
       </c>
@@ -3235,6 +3409,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H8:J10"/>
     <mergeCell ref="B26:C26"/>
@@ -3244,26 +3438,6 @@
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3292,54 +3466,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="85">
         <v>43269</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3348,30 +3522,30 @@
       <c r="B5" s="19">
         <v>3</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -3382,16 +3556,16 @@
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -3400,49 +3574,49 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
       <c r="H13" s="25" t="s">
         <v>52</v>
       </c>
@@ -3454,14 +3628,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
       <c r="H14" s="23">
         <v>1</v>
       </c>
@@ -3473,14 +3647,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
       <c r="H15" s="23">
         <v>2</v>
       </c>
@@ -3492,14 +3666,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
       <c r="H16" s="23">
         <v>3</v>
       </c>
@@ -3522,14 +3696,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="75"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
       <c r="H18" s="23">
         <v>5</v>
       </c>
@@ -3544,10 +3718,10 @@
       <c r="A19" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="36" t="s">
         <v>12</v>
       </c>
@@ -3571,10 +3745,10 @@
       <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="19" t="s">
         <v>38</v>
       </c>
@@ -3598,10 +3772,10 @@
       <c r="A21" s="2">
         <v>2</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="72"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="19" t="s">
         <v>41</v>
       </c>
@@ -3616,10 +3790,10 @@
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="5" t="s">
         <v>40</v>
       </c>
@@ -3634,10 +3808,10 @@
       <c r="A23" s="4">
         <v>4</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="82"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="5" t="s">
         <v>40</v>
       </c>
@@ -3650,13 +3824,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A1:F1"/>
@@ -3673,6 +3840,13 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3684,8 +3858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545CDF5D-2062-4286-BBC5-C14E1CC6FABB}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3701,54 +3875,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="85">
         <v>43270</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -3757,30 +3931,30 @@
       <c r="B5" s="19">
         <v>4</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -3791,16 +3965,16 @@
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -3809,32 +3983,32 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
@@ -3846,29 +4020,29 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="H14" s="78" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="H14" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
       <c r="H15" s="25" t="s">
         <v>52</v>
       </c>
@@ -3880,14 +4054,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
       <c r="H16" s="19">
         <v>1</v>
       </c>
@@ -3899,14 +4073,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
       <c r="H17" s="23">
         <v>2</v>
       </c>
@@ -3918,14 +4092,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
       <c r="H18" s="23">
         <v>3</v>
       </c>
@@ -3948,23 +4122,23 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="83"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="17" t="s">
         <v>12</v>
       </c>
@@ -3979,10 +4153,10 @@
       <c r="A22" s="2">
         <v>1</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="64"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="19" t="s">
         <v>41</v>
       </c>
@@ -3997,10 +4171,10 @@
       <c r="A23" s="2">
         <v>2</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="72"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="19" t="s">
         <v>38</v>
       </c>
@@ -4015,10 +4189,10 @@
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="82"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="5" t="s">
         <v>40</v>
       </c>
@@ -4033,10 +4207,10 @@
       <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="82"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="5" t="s">
         <v>40</v>
       </c>
@@ -4051,10 +4225,10 @@
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="82"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="5" t="s">
         <v>89</v>
       </c>
@@ -4069,10 +4243,10 @@
       <c r="A27" s="4">
         <v>6</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="82"/>
+      <c r="C27" s="87"/>
       <c r="D27" s="5" t="s">
         <v>40</v>
       </c>
@@ -4085,6 +4259,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
@@ -4101,16 +4285,6 @@
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4121,7 +4295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13651FC-B812-4427-8764-62367C512B86}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
@@ -4138,54 +4312,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="85">
         <v>43272</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -4194,30 +4368,30 @@
       <c r="B5" s="23">
         <v>5</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -4228,16 +4402,16 @@
       <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -4246,68 +4420,68 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="H14" s="78" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="H14" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
       <c r="H15" s="39" t="s">
         <v>52</v>
       </c>
@@ -4319,14 +4493,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
       <c r="H16" s="23">
         <v>1</v>
       </c>
@@ -4338,14 +4512,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
       <c r="H17" s="23">
         <v>2</v>
       </c>
@@ -4357,14 +4531,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
       <c r="H18" s="23">
         <v>3</v>
       </c>
@@ -4376,14 +4550,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
       <c r="H19" s="23">
         <v>4</v>
       </c>
@@ -4406,14 +4580,14 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
       <c r="H21" s="23">
         <v>6</v>
       </c>
@@ -4428,10 +4602,10 @@
       <c r="A22" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="76"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="36" t="s">
         <v>12</v>
       </c>
@@ -4446,10 +4620,10 @@
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="64"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="23" t="s">
         <v>89</v>
       </c>
@@ -4464,10 +4638,10 @@
       <c r="A24" s="2">
         <v>2</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="72"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="23" t="s">
         <v>89</v>
       </c>
@@ -4482,10 +4656,10 @@
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="82"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="5" t="s">
         <v>38</v>
       </c>
@@ -4500,10 +4674,10 @@
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="82"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="5" t="s">
         <v>41</v>
       </c>
@@ -4518,10 +4692,10 @@
       <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="82"/>
+      <c r="C27" s="87"/>
       <c r="D27" s="5" t="s">
         <v>26</v>
       </c>
@@ -4536,10 +4710,10 @@
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="82"/>
+      <c r="C28" s="87"/>
       <c r="D28" s="5" t="s">
         <v>40</v>
       </c>
@@ -4552,21 +4726,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="H8:J10"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="B27:C27"/>
@@ -4580,6 +4739,21 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A14:F14"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4591,7 +4765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B86E4A-F288-47B6-843B-E3238DE520EC}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
@@ -4609,54 +4783,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="85">
         <v>43276</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
@@ -4665,30 +4839,30 @@
       <c r="B5" s="42">
         <v>6</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -4699,16 +4873,16 @@
       <c r="A8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -4717,68 +4891,68 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="H14" s="78" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="H14" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
       <c r="H15" s="39" t="s">
         <v>52</v>
       </c>
@@ -4790,14 +4964,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
       <c r="H16" s="42">
         <v>1</v>
       </c>
@@ -4809,14 +4983,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
       <c r="H17" s="42">
         <v>2</v>
       </c>
@@ -4828,14 +5002,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
       <c r="H18" s="42">
         <v>3</v>
       </c>
@@ -4858,14 +5032,14 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
       <c r="H20" s="42">
         <v>5</v>
       </c>
@@ -4880,10 +5054,10 @@
       <c r="A21" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="76"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="46" t="s">
         <v>12</v>
       </c>
@@ -4907,10 +5081,10 @@
       <c r="A22" s="2">
         <v>1</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="64"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="42" t="s">
         <v>89</v>
       </c>
@@ -4925,10 +5099,10 @@
       <c r="A23" s="2">
         <v>2</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="72"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="42" t="s">
         <v>38</v>
       </c>
@@ -4943,10 +5117,10 @@
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="82"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="5" t="s">
         <v>118</v>
       </c>
@@ -4961,10 +5135,10 @@
       <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="82"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="5" t="s">
         <v>41</v>
       </c>
@@ -4977,12 +5151,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:F7"/>
@@ -4995,13 +5170,12 @@
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5013,8 +5187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88DD946-AF28-4907-BF75-BBC3EA2DDF6D}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5031,54 +5205,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="85">
         <v>43277</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
@@ -5087,30 +5261,30 @@
       <c r="B5" s="48">
         <v>7</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
       <c r="H7" s="29" t="s">
         <v>49</v>
       </c>
@@ -5121,16 +5295,16 @@
       <c r="A8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -5139,68 +5313,68 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="H14" s="78" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="H14" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
       <c r="H15" s="39" t="s">
         <v>52</v>
       </c>
@@ -5212,14 +5386,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
       <c r="H16" s="48">
         <v>1</v>
       </c>
@@ -5242,14 +5416,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="75"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
       <c r="H18" s="48">
         <v>3</v>
       </c>
@@ -5264,10 +5438,10 @@
       <c r="A19" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="47" t="s">
         <v>12</v>
       </c>
@@ -5291,10 +5465,10 @@
       <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="48" t="s">
         <v>41</v>
       </c>
@@ -5309,10 +5483,10 @@
       <c r="A21" s="2">
         <v>2</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="72"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="48" t="s">
         <v>40</v>
       </c>
@@ -5327,10 +5501,10 @@
       <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="5" t="s">
         <v>89</v>
       </c>
@@ -5345,10 +5519,10 @@
       <c r="A23" s="4">
         <v>4</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="82"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="5" t="s">
         <v>130</v>
       </c>
@@ -5361,17 +5535,398 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC14D56-7D6B-4EF8-B2DF-71D6854E8DDB}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="48.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="17.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="85">
+        <v>43277</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="81"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="83"/>
+      <c r="C4" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="52">
+        <v>7</v>
+      </c>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="78"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="H7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="62"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="62"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="H14" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="H15" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="H16" s="52">
+        <v>1</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="52">
+        <v>2</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="H18" s="52">
+        <v>3</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="52">
+        <v>4</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="55">
+        <v>43278</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="55">
+        <v>43278</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>3</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="87"/>
+      <c r="D22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="55">
+        <v>43278</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>4</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="87"/>
+      <c r="D23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="55">
+        <v>43278</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A18:F18"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:F7"/>
     <mergeCell ref="B8:F8"/>
